--- a/Plano de gerenciamento das parters interessadas.xlsx
+++ b/Plano de gerenciamento das parters interessadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\si\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8414C5C4-4259-4C0C-8AAD-7ABD182772D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{2A69B541-7639-48B4-BFF3-F3293C707344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="234" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>Plano de Gerenciamento das Partes Interessadas</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>Ecologico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Manter informada sobre todo os processos e afins | 2. Dar todo suporte necessario para Ana | 3. Tornar Ana uma embaixadora das mulheres na luta contra a exploração humana </t>
   </si>
 </sst>
 </file>
@@ -10004,8 +10007,8 @@
   </sheetPr>
   <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15283,7 +15286,7 @@
       <c r="D13" s="42"/>
       <c r="E13" s="40"/>
     </row>
-    <row r="14" spans="1:1024">
+    <row r="14" spans="1:1024" ht="75">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -15293,7 +15296,9 @@
         <v xml:space="preserve">Ana </v>
       </c>
       <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
+      <c r="D14" s="42" t="s">
+        <v>77</v>
+      </c>
       <c r="E14" s="40"/>
     </row>
     <row r="15" spans="1:1024">
